--- a/graphs/graf_3.xlsx
+++ b/graphs/graf_3.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15608.41707585903</v>
+        <v>15778.01799808131</v>
       </c>
       <c r="C2" t="n">
-        <v>15226.85403619342</v>
+        <v>15392.3088977962</v>
       </c>
       <c r="D2" t="n">
-        <v>509689.6573125678</v>
+        <v>636733.2941520028</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14451.8445494453</v>
+        <v>14627.79040287244</v>
       </c>
       <c r="C3" t="n">
-        <v>14467.14142519665</v>
+        <v>14643.27351241377</v>
       </c>
       <c r="D3" t="n">
-        <v>514707.6483995583</v>
+        <v>622606.6389124633</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14119.18044591933</v>
+        <v>14218.80066201299</v>
       </c>
       <c r="C4" t="n">
-        <v>14728.64672179816</v>
+        <v>14832.56712817732</v>
       </c>
       <c r="D4" t="n">
-        <v>412132.1221398944</v>
+        <v>445948.2001064043</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13212.43826551421</v>
+        <v>13206.02814051673</v>
       </c>
       <c r="C5" t="n">
-        <v>13407.34404128608</v>
+        <v>13400.83935611383</v>
       </c>
       <c r="D5" t="n">
-        <v>590691.5756317312</v>
+        <v>632173.8398814903</v>
       </c>
     </row>
     <row r="6">
@@ -526,13 +526,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12709.79385704257</v>
+        <v>12865.11888801059</v>
       </c>
       <c r="C6" t="n">
-        <v>12148.59084363568</v>
+        <v>12297.05747262816</v>
       </c>
       <c r="D6" t="n">
-        <v>585689.1857346907</v>
+        <v>645430.2588331797</v>
       </c>
     </row>
     <row r="7">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11689.75323400384</v>
+        <v>11860.42295982869</v>
       </c>
       <c r="C7" t="n">
-        <v>11028.34215012874</v>
+        <v>11189.3553120975</v>
       </c>
       <c r="D7" t="n">
-        <v>546008.8963032073</v>
+        <v>576964.7709690979</v>
       </c>
     </row>
     <row r="8">
@@ -558,13 +558,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11519.53593664129</v>
+        <v>11645.88975371437</v>
       </c>
       <c r="C8" t="n">
-        <v>12933.06681290797</v>
+        <v>13074.92516272855</v>
       </c>
       <c r="D8" t="n">
-        <v>551916.3242238093</v>
+        <v>600611.1212153231</v>
       </c>
     </row>
     <row r="9">
@@ -574,13 +574,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11423.69198218642</v>
+        <v>11552.01063969364</v>
       </c>
       <c r="C9" t="n">
-        <v>11969.01496625229</v>
+        <v>12103.45906145712</v>
       </c>
       <c r="D9" t="n">
-        <v>490571.868290728</v>
+        <v>535593.3298955993</v>
       </c>
     </row>
     <row r="10">
@@ -590,13 +590,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11094.99414820511</v>
+        <v>11272.87044389844</v>
       </c>
       <c r="C10" t="n">
-        <v>10369.47247199109</v>
+        <v>10535.71711592775</v>
       </c>
       <c r="D10" t="n">
-        <v>481706.4368166877</v>
+        <v>541483.8851404014</v>
       </c>
     </row>
     <row r="11">
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10522.92363336262</v>
+        <v>10556.85866039842</v>
       </c>
       <c r="C11" t="n">
-        <v>10689.43910617324</v>
+        <v>10723.91112344424</v>
       </c>
       <c r="D11" t="n">
-        <v>587869.8883212826</v>
+        <v>656266.418216069</v>
       </c>
     </row>
     <row r="12">
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9885.91177758021</v>
+        <v>10047.99075472575</v>
       </c>
       <c r="C12" t="n">
-        <v>10565.7729258909</v>
+        <v>10738.9981889728</v>
       </c>
       <c r="D12" t="n">
-        <v>569267.1029660801</v>
+        <v>613106.0944495659</v>
       </c>
     </row>
     <row r="13">
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8835.630826805727</v>
+        <v>8988.948359037528</v>
       </c>
       <c r="C13" t="n">
-        <v>8130.540339465685</v>
+        <v>8271.623008591323</v>
       </c>
       <c r="D13" t="n">
-        <v>544332.9783199364</v>
+        <v>578096.3282618701</v>
       </c>
     </row>
     <row r="14">
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8589.350883790963</v>
+        <v>8657.428677942709</v>
       </c>
       <c r="C14" t="n">
-        <v>8940.761930693669</v>
+        <v>9011.624951462116</v>
       </c>
       <c r="D14" t="n">
-        <v>666571.8885114879</v>
+        <v>712858.6685511762</v>
       </c>
     </row>
   </sheetData>
